--- a/src/controllers/youtuber.xlsx
+++ b/src/controllers/youtuber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thela\Desktop\youtube-crawling\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thela\Desktop\youtube-crawling\src\controllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1184C-3C0A-4815-B01D-CAF31F065B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE18900D-0351-47E7-90B1-1890CC9A3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1980" windowWidth="28800" windowHeight="15460" xr2:uid="{C13FBCF7-D931-460F-A062-6DAE7AFECBF0}"/>
   </bookViews>
@@ -35,11 +35,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>사이트</t>
+    <t>https://www.youtube.com/c/%EB%95%85%ED%8A%9C%EB%B8%8C/videos</t>
+  </si>
+  <si>
+    <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/c/%EB%95%85%ED%8A%9C%EB%B8%8C/videos</t>
   </si>
   <si>
     <t>https://www.youtube.com/c/%ED%97%AC%EC%B0%BDTV/videos</t>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -107,21 +116,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,7 +452,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -446,16 +462,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
